--- a/src/main/resources/templates/test1.xlsx
+++ b/src/main/resources/templates/test1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2ACA1B5D-737F-AF4C-A348-6051837C7B8D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3CDA7FEE-81F8-AB4B-AFF0-929CD5F13402}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,30 +28,30 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>今日完成任务数</t>
+    <t>日期</t>
     <rPh sb="0" eb="2">
-      <t>jin'r</t>
+      <t>ri'q</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>今日总任务</t>
+    <t>跟进数</t>
     <rPh sb="0" eb="2">
-      <t>jin'r</t>
+      <t>gen'ji</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>任务完成率</t>
+    <t>客户总数</t>
     <rPh sb="0" eb="2">
-      <t>ren'w</t>
+      <t>ke'h</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <rPh sb="0" eb="2">
-      <t>ri'q</t>
+    <t>跟进完成率</t>
+    <rPh sb="0" eb="9">
+      <t>gen'ji</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -63,7 +63,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +92,12 @@
       <family val="1"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -113,12 +119,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -407,7 +416,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -418,18 +427,18 @@
     <col min="4" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
